--- a/bin/xlsx/市场表.xlsx
+++ b/bin/xlsx/市场表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>INT</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>售卖物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,18 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_high</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每日价格下限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,15 +80,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丹参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收购物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收购物品count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_price_low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_price_high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_price_low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_price_high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{buy}#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -511,40 +531,40 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -555,66 +575,78 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -622,10 +654,10 @@
         <v>101000001</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -637,19 +669,19 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -664,5 +696,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>